--- a/Calibration.xlsx
+++ b/Calibration.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="360" yWindow="45" windowWidth="10395" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data2" sheetId="4" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>Reading</t>
   </si>
@@ -115,11 +116,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>Data2!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -130,72 +131,84 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Data2!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>491.5</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>594</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>691</c:v>
+                  <c:v>388.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>769.5</c:v>
+                  <c:v>532.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1009.5</c:v>
+                  <c:v>554.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1068</c:v>
+                  <c:v>672.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1226.5</c:v>
+                  <c:v>742.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2034</c:v>
+                  <c:v>775.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2458.5</c:v>
+                  <c:v>879.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2714.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3524.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
+              <c:f>Data2!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1368.1714449379001</c:v>
+                  <c:v>431.07652877560002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1610.0023910443001</c:v>
+                  <c:v>501.61055472330003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2023.1302573094001</c:v>
+                  <c:v>773.67036909299998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2113.8168620992997</c:v>
+                  <c:v>1035.6538940416001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2799.0045427340997</c:v>
+                  <c:v>1075.9590517260001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3050.9117782615999</c:v>
+                  <c:v>1267.4085507269001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3413.6581974211999</c:v>
+                  <c:v>1388.3240237801001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5741.2810536953002</c:v>
+                  <c:v>1458.8580497278001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7242.6481774392005</c:v>
+                  <c:v>1604.9642463337502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5086.3222413238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6577.6130756466009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -210,18 +223,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199875968"/>
-        <c:axId val="199874432"/>
+        <c:axId val="187307904"/>
+        <c:axId val="187309440"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>Data2!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -232,72 +245,84 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>Data2!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>491.5</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>594</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>691</c:v>
+                  <c:v>388.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>769.5</c:v>
+                  <c:v>532.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1009.5</c:v>
+                  <c:v>554.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1068</c:v>
+                  <c:v>672.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1226.5</c:v>
+                  <c:v>742.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2034</c:v>
+                  <c:v>775.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2458.5</c:v>
+                  <c:v>879.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2714.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3524.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$12</c:f>
+              <c:f>Data2!$E$4:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-78.252443379239594</c:v>
+                  <c:v>25.869659143879403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-138.06635699309754</c:v>
+                  <c:v>38.782524731105411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.397528707168476</c:v>
+                  <c:v>52.067566669024814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-150.72674331278358</c:v>
+                  <c:v>46.391508007681068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-171.82946592541703</c:v>
+                  <c:v>44.521693802430946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-92.080516189478658</c:v>
+                  <c:v>16.657621482933109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-195.78005084120468</c:v>
+                  <c:v>8.910619692519731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-244.53011382669774</c:v>
+                  <c:v>18.10599106294103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5858591733049252</c:v>
+                  <c:v>-30.621684233847191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.21790234261789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.458892082384409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,11 +337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212695680"/>
-        <c:axId val="200466432"/>
+        <c:axId val="191576704"/>
+        <c:axId val="191563264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199875968"/>
+        <c:axId val="187307904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,12 +351,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199874432"/>
+        <c:crossAx val="187309440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199874432"/>
+        <c:axId val="187309440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,12 +367,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199875968"/>
+        <c:crossAx val="187307904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200466432"/>
+        <c:axId val="191563264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,12 +382,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212695680"/>
+        <c:crossAx val="191576704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212695680"/>
+        <c:axId val="191576704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,13 +397,151 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200466432"/>
+        <c:crossAx val="191563264"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="186579200"/>
+        <c:axId val="186580992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186579200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186580992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186580992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186579200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -418,7 +581,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$16</c:f>
+              <c:f>Data2!$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -438,15 +601,15 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$25</c:f>
+              <c:f>Data2!$B$21:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>943.25</c:v>
+                  <c:v>2639.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1057.3800000000001</c:v>
+                  <c:v>2639.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1272</c:v>
@@ -474,15 +637,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$D$30</c:f>
+              <c:f>Data2!$D$21:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1730.9178640975001</c:v>
+                  <c:v>3972.8922602922498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2013.0539678883001</c:v>
+                  <c:v>3972.8922602922498</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2426.1818341533999</c:v>
@@ -527,8 +690,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201729920"/>
-        <c:axId val="201731456"/>
+        <c:axId val="187335808"/>
+        <c:axId val="187337344"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -538,7 +701,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$16</c:f>
+              <c:f>Data2!$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -549,15 +712,15 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$25</c:f>
+              <c:f>Data2!$B$21:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>943.25</c:v>
+                  <c:v>2639.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1057.3800000000001</c:v>
+                  <c:v>2639.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1272</c:v>
@@ -585,36 +748,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$17:$E$30</c:f>
+              <c:f>Data2!$E$21:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-39.077137256462038</c:v>
+                  <c:v>-670.82283453124319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.895669948567729</c:v>
+                  <c:v>-670.82283453124319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.292206035467643</c:v>
+                  <c:v>188.26380647478754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4739242046366599</c:v>
+                  <c:v>189.25826696360082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.80286491850984</c:v>
+                  <c:v>272.86402024611789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-14.124977290036441</c:v>
+                  <c:v>209.87349946487893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-47.945081128226775</c:v>
+                  <c:v>240.42388363727332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.804787238750578</c:v>
+                  <c:v>451.45216265963791</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.443598848773945</c:v>
+                  <c:v>412.11043387966583</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-42.476772150030001</c:v>
@@ -638,11 +801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213741952"/>
-        <c:axId val="213732736"/>
+        <c:axId val="187340672"/>
+        <c:axId val="187339136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201729920"/>
+        <c:axId val="187335808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,12 +815,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201731456"/>
+        <c:crossAx val="187337344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201731456"/>
+        <c:axId val="187337344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,12 +831,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201729920"/>
+        <c:crossAx val="187335808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213732736"/>
+        <c:axId val="187339136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,12 +846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213741952"/>
+        <c:crossAx val="187340672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213741952"/>
+        <c:axId val="187340672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +861,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213732736"/>
+        <c:crossAx val="187339136"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -744,7 +908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$29</c:f>
+              <c:f>Data2!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -764,7 +928,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$B$38</c:f>
+              <c:f>Data2!$B$34:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -800,7 +964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$D$38</c:f>
+              <c:f>Data2!$D$34:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -844,8 +1008,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201742208"/>
-        <c:axId val="201725824"/>
+        <c:axId val="185205120"/>
+        <c:axId val="185206656"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -855,7 +1019,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$29</c:f>
+              <c:f>Data2!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -866,7 +1030,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$B$38</c:f>
+              <c:f>Data2!$B$34:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -902,7 +1066,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$30:$E$38</c:f>
+              <c:f>Data2!$E$34:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -946,11 +1110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204680192"/>
-        <c:axId val="95434240"/>
+        <c:axId val="185218176"/>
+        <c:axId val="185208192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201742208"/>
+        <c:axId val="185205120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,12 +1124,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201725824"/>
+        <c:crossAx val="185206656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201725824"/>
+        <c:axId val="185206656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,12 +1140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201742208"/>
+        <c:crossAx val="185205120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95434240"/>
+        <c:axId val="185208192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,12 +1155,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204680192"/>
+        <c:crossAx val="185218176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204680192"/>
+        <c:axId val="185218176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1170,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95434240"/>
+        <c:crossAx val="185208192"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1052,7 +1217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$42</c:f>
+              <c:f>Data2!$D$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,7 +1237,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$51</c:f>
+              <c:f>Data2!$B$47:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1108,7 +1273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$43:$D$51</c:f>
+              <c:f>Data2!$D$47:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1152,8 +1317,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202223616"/>
-        <c:axId val="202205440"/>
+        <c:axId val="125476224"/>
+        <c:axId val="185238656"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1163,7 +1328,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$42</c:f>
+              <c:f>Data2!$E$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1174,7 +1339,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$51</c:f>
+              <c:f>Data2!$B$47:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1210,7 +1375,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$43:$E$51</c:f>
+              <c:f>Data2!$E$47:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1254,11 +1419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206503296"/>
-        <c:axId val="206500992"/>
+        <c:axId val="185246080"/>
+        <c:axId val="185240192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202223616"/>
+        <c:axId val="125476224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -1269,12 +1434,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202205440"/>
+        <c:crossAx val="185238656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202205440"/>
+        <c:axId val="185238656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,12 +1450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202223616"/>
+        <c:crossAx val="125476224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206500992"/>
+        <c:axId val="185240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,12 +1465,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206503296"/>
+        <c:crossAx val="185246080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206503296"/>
+        <c:axId val="185246080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1480,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206500992"/>
+        <c:crossAx val="185240192"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1336,7 +1502,1491 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated LBS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>491.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>769.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1226.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2458.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1368.1714449379001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1610.0023910443001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023.1302573094001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2113.8168620992997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2799.0045427340997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3050.9117782615999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3413.6581974211999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5741.2810536953002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7242.6481774392005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187189504"/>
+        <c:axId val="187203584"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piston Offset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>491.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>769.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1226.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2458.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$4:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-78.252443379239594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-138.06635699309754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.397528707168476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-150.72674331278358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-171.82946592541703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-92.080516189478658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-195.78005084120468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-244.53011382669774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5858591733049252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187206656"/>
+        <c:axId val="187205120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187189504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187203584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187203584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187189504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187205120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187206656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187206656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187205120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$17:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>943.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1057.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1569.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1912.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2462.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3267.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3693.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$17:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1730.9178640975001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013.0539678883001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2426.1818341533999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2950.1488840505999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3383.4293291579002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3574.8788281587999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4572.4314808477002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6199.7522223553506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6910.1306265429002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1418.5528920434001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187230080"/>
+        <c:axId val="187231616"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piston Offset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$17:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>943.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1057.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1569.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1912.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2462.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3267.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3693.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$17:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-39.077137256462038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.895669948567729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.292206035467643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4739242046366599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.80286491850984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.124977290036441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-47.945081128226775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.804787238750578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20.443598848773945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-42.476772150030001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.0187300751908879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187636352"/>
+        <c:axId val="187634816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187230080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187231616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187231616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187230080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187634816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187636352"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187636352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187634816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$30:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>740.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>898.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1185.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1215.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1414.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1509.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1610.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1613.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2047.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$30:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1418.5528920434001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1660.3838381498001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2295.1900716791001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2335.4952293635001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2597.4787543120997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2819.1571215763001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3081.1406465248997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3040.8354888404997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3957.7778261605999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187679488"/>
+        <c:axId val="187681024"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piston Offset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$30:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>740.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>898.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1185.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1215.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1414.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1509.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1610.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1613.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2047.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$30:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-9.0187300751908879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-71.055223642433475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.574235746814793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.6525602366073144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-129.34691103485511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-91.045468410654848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23.890286650853341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-69.516305479139191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6603004326493647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187688448"/>
+        <c:axId val="187686912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187679488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187681024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187681024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187679488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187686912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187688448"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187688448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187686912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$43:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>615.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$D$43:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1186.7982353581001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1327.8662872535001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1418.5528920434001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1509.2394968333001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1831.6807583085001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2073.5117044149001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2234.7323351524997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2264.9612034157999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2315.3426505212997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187387264"/>
+        <c:axId val="187393152"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piston Offset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$B$43:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>615.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$43:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.52493902461128528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-31.2667223259823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-89.024432057529339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-63.884667445930518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-113.51811639461721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-135.80237924196035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-67.118464050198327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-65.807319394972183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-136.88031144338356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187396480"/>
+        <c:axId val="187394688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187387264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187393152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187393152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187387264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187394688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187396480"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187396480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187394688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="186560896"/>
+        <c:axId val="186562432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186560896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186562432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186562432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186560896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1455,6 +3105,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1750,10 +3465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F51"/>
+  <dimension ref="B2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,6 +3480,899 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2">
+        <v>1875</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(E4:E14)</f>
+        <v>26.214754071242783</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>218</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>(C4*10.0762894211)+28.0249519316</f>
+        <v>431.07652877560002</v>
+      </c>
+      <c r="E4">
+        <f>D4-(B4*$F$4)</f>
+        <v>25.869659143879403</v>
+      </c>
+      <c r="F4">
+        <f>LINEST(D4:D14,B4:B14)</f>
+        <v>1.8587471084023881</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>249</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D14" si="0">(C5*10.0762894211)+28.0249519316</f>
+        <v>501.61055472330003</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E14" si="1">D5-(B5*$F$4)</f>
+        <v>38.782524731105411</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F14" si="2">D5/B5</f>
+        <v>2.0145002197722892</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>388.22</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>773.67036909299998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>52.067566669024814</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.9928658211658337</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>532.22</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1035.6538940416001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>46.391508007681068</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.9459131450182257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>554.91</v>
+      </c>
+      <c r="C8">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1075.9590517260001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>44.521693802430946</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.9389793871546741</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>672.9</v>
+      </c>
+      <c r="C9">
+        <v>123</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1267.4085507269001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>16.657621482933109</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.8835020816271364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>742.12</v>
+      </c>
+      <c r="C10">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1388.3240237801001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>8.910619692519731</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.8707540879912954</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>775.12</v>
+      </c>
+      <c r="C11">
+        <v>142</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1458.8580497278001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>18.10599106294103</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.8821060606458355</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>879.94</v>
+      </c>
+      <c r="C12">
+        <v>156.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1604.9642463337502</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-30.621684233847191</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.82394736724521</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2714.25</v>
+      </c>
+      <c r="C13">
+        <v>502</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5086.3222413238</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>41.21790234261789</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.8739328511831261</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3524.5</v>
+      </c>
+      <c r="C14">
+        <v>650</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6577.6130756466009</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>26.458892082384409</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.8662542419198753</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(E21:E29)</f>
+        <v>69.177822695941757</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2639.42</v>
+      </c>
+      <c r="C21">
+        <v>391.5</v>
+      </c>
+      <c r="D21">
+        <f>(C21*10.0762894211)+28.0249519316</f>
+        <v>3972.8922602922498</v>
+      </c>
+      <c r="E21">
+        <f>D21-(B21*$F$21)</f>
+        <v>-670.82283453124319</v>
+      </c>
+      <c r="F21">
+        <f>LINEST(D21:D29,B21:B29)</f>
+        <v>1.7593695186152614</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2639.42</v>
+      </c>
+      <c r="C22">
+        <v>391.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D29" si="3">(C22*10.0762894211)+28.0249519316</f>
+        <v>3972.8922602922498</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E29" si="4">D22-(B22*$F$21)</f>
+        <v>-670.82283453124319</v>
+      </c>
+      <c r="F22">
+        <f>D22/B22</f>
+        <v>1.505214122910431</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1272</v>
+      </c>
+      <c r="C23">
+        <v>238</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>2426.1818341533999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>188.26380647478754</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F29" si="5">D23/B23</f>
+        <v>1.9073756557809747</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1569.25</v>
+      </c>
+      <c r="C24">
+        <v>290</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>2950.1488840505999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>189.25826696360082</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>1.879973798980787</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1768</v>
+      </c>
+      <c r="C25">
+        <v>333</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>3383.4293291579002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>272.86402024611789</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>1.9137043716956448</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1912.62</v>
+      </c>
+      <c r="C26">
+        <v>352</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>3574.8788281587999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>209.87349946487893</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>1.8691004110376344</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2462.25</v>
+      </c>
+      <c r="C27">
+        <v>451</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>4572.4314808477002</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>240.42388363727332</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>1.857013496130653</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3267.25</v>
+      </c>
+      <c r="C28">
+        <v>612.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>6199.7522223553506</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>451.45216265963791</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>1.8975444861444182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3693.38</v>
+      </c>
+      <c r="C29">
+        <v>683</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>6910.1306265429002</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>412.11043387966583</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>1.8709503561894254</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>3750</v>
+      </c>
+      <c r="E32">
+        <f>AVERAGE(E34:E42)</f>
+        <v>-42.476772150030001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>740.5</v>
+      </c>
+      <c r="C34">
+        <v>138</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D42" si="6">(C34*10.0762894211)+28.0249519316</f>
+        <v>1418.5528920434001</v>
+      </c>
+      <c r="E34">
+        <f>D34-(B34*$F$34)</f>
+        <v>-9.0187300751908879</v>
+      </c>
+      <c r="F34">
+        <f>LINEST(D34:D42,B34:B42)</f>
+        <v>1.9278482405382729</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>898.12</v>
+      </c>
+      <c r="C35">
+        <v>162</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>1660.3838381498001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E42" si="7">D35-(B35*$F$34)</f>
+        <v>-71.055223642433475</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F42" si="8">D35/B35</f>
+        <v>1.8487327285327129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1185.06</v>
+      </c>
+      <c r="C36">
+        <v>225</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>2295.1900716791001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>10.574235746814793</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>1.9367711944366532</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1215.94</v>
+      </c>
+      <c r="C37">
+        <v>229</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>2335.4952293635001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>-8.6525602366073144</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
+        <v>1.920732297122802</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1414.44</v>
+      </c>
+      <c r="C38">
+        <v>255</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>2597.4787543120997</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>-129.34691103485511</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
+        <v>1.836400804779347</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1509.56</v>
+      </c>
+      <c r="C39">
+        <v>277</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>2819.1571215763001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>-91.045468410654848</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="8"/>
+        <v>1.8675356538172052</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1610.62</v>
+      </c>
+      <c r="C40">
+        <v>303</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>3081.1406465248997</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>-23.890286650853341</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>1.9130152652549328</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1613.38</v>
+      </c>
+      <c r="C41">
+        <v>299</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>3040.8354888404997</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="7"/>
+        <v>-69.516305479139191</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>1.8847608677685972</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2047.94</v>
+      </c>
+      <c r="C42">
+        <v>390</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>3957.7778261605999</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="7"/>
+        <v>9.6603004326493647</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>1.9325653223046573</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>3750</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(E47:E55)</f>
+        <v>-78.203039042131678</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>615.88</v>
+      </c>
+      <c r="C47">
+        <v>115</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D55" si="9">(C47*10.0762894211)+28.0249519316</f>
+        <v>1186.7982353581001</v>
+      </c>
+      <c r="E47">
+        <f>D47-(B47*$F$34)</f>
+        <v>-0.52493902461128528</v>
+      </c>
+      <c r="F47">
+        <f>LINEST(D47:D55,B47:B55)</f>
+        <v>1.7962583558938212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>705</v>
+      </c>
+      <c r="C48">
+        <v>129</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="9"/>
+        <v>1327.8662872535001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E55" si="10">D48-(B48*$F$34)</f>
+        <v>-31.2667223259823</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>782</v>
+      </c>
+      <c r="C49">
+        <v>138</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="9"/>
+        <v>1418.5528920434001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="10"/>
+        <v>-89.024432057529339</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>816</v>
+      </c>
+      <c r="C50">
+        <v>147</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="9"/>
+        <v>1509.2394968333001</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="10"/>
+        <v>-63.884667445930518</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1009</v>
+      </c>
+      <c r="C51">
+        <v>179</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="9"/>
+        <v>1831.6807583085001</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="10"/>
+        <v>-113.51811639461721</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1146</v>
+      </c>
+      <c r="C52">
+        <v>203</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="9"/>
+        <v>2073.5117044149001</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>-135.80237924196035</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1194</v>
+      </c>
+      <c r="C53">
+        <v>219</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="9"/>
+        <v>2234.7323351524997</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="10"/>
+        <v>-67.118464050198327</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1209</v>
+      </c>
+      <c r="C54">
+        <v>222</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="9"/>
+        <v>2264.9612034157999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="10"/>
+        <v>-65.807319394972183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1272</v>
+      </c>
+      <c r="C55">
+        <v>227</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="9"/>
+        <v>2315.3426505212997</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="10"/>
+        <v>-136.88031144338356</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>4069</v>
+      </c>
+      <c r="C60">
+        <v>252</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60" si="11">(C60*10.0762894211)+28.0249519316</f>
+        <v>2567.2498860487999</v>
+      </c>
+      <c r="E60">
+        <f>D60/B60</f>
+        <v>0.63092894717345782</v>
+      </c>
+      <c r="F60">
+        <f>2.9*E60</f>
+        <v>1.8296939468030275</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B4:C14">
+    <sortCondition ref="B4:B14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
@@ -2427,7 +5035,7 @@
         <v>-135.80237924196035</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1194</v>
       </c>
@@ -2443,7 +5051,7 @@
         <v>-67.118464050198327</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1209</v>
       </c>
@@ -2459,7 +5067,7 @@
         <v>-65.807319394972183</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1272</v>
       </c>
@@ -2473,6 +5081,26 @@
       <c r="E51">
         <f t="shared" si="7"/>
         <v>-136.88031144338356</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>4069</v>
+      </c>
+      <c r="C56">
+        <v>252</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56" si="8">(C56*10.0762894211)+28.0249519316</f>
+        <v>2567.2498860487999</v>
+      </c>
+      <c r="E56">
+        <f>D56/B56</f>
+        <v>0.63092894717345782</v>
+      </c>
+      <c r="F56">
+        <f>2.9*E56</f>
+        <v>1.8296939468030275</v>
       </c>
     </row>
   </sheetData>
@@ -2484,19 +5112,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>690</v>
+      </c>
+      <c r="C2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>550</v>
+      </c>
+      <c r="C3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>680</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>615</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
